--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,144 +432,95 @@
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>27</v>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>Результат</t>
+          <t>Первичные баллы</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Вторичные баллы</t>
         </is>
       </c>
     </row>
@@ -668,6 +619,9 @@
       <c r="AD2" t="n">
         <v>0</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -764,6 +718,9 @@
       <c r="AD3" t="n">
         <v>3</v>
       </c>
+      <c r="AE3" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,996 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Барсуков</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Фёдор</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Самохин</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Барсуков</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Фёдор</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Самохин</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Барсуков</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Фёдор</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Самохин</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Барсуков</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Фёдор</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Самохин</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Барсуков</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Фёдор</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Самохин</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -719,6 +719,303 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Барсуков</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Цыкура</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Фёдор</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Самохин</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -617,21 +617,21 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Фёдор</t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Самохин</t>
+          <t>Цыкура</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -725,28 +725,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Егор</t>
+          <t>Фёдор</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Барсуков</t>
+          <t>Самохин</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -815,207 +815,9 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Сергей</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Цыкура</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Фёдор</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Самохин</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,93 +432,24 @@
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1
+Тип: 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>26
+Тип: 26</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Первичные баллы</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Вторичные баллы</t>
         </is>
@@ -536,91 +467,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -646,81 +502,6 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -743,81 +524,6 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
